--- a/data/trans_camb/P16B03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Clase-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-82,85; 9,62</t>
+          <t>-83,32; 20,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,84; 48,56</t>
+          <t>10,57; 47,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 50,52</t>
+          <t>2,37; 53,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,73; 39,38</t>
+          <t>-25,95; 39,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,73; 29,62</t>
+          <t>-7,51; 29,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 32,14</t>
+          <t>-12,48; 31,35</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 17,82</t>
+          <t>-100,0; 32,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 94,32</t>
+          <t>11,79; 90,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 107,56</t>
+          <t>2,48; 126,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 73,78</t>
+          <t>-31,89; 75,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,48; 49,5</t>
+          <t>-8,92; 48,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 51,83</t>
+          <t>-14,51; 50,3</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-85,25; 64,53</t>
+          <t>-84,43; 64,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-85,26; 30,82</t>
+          <t>-85,52; 30,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 35,93</t>
+          <t>-15,01; 36,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,46; 33,18</t>
+          <t>-26,27; 30,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 31,9</t>
+          <t>-19,29; 33,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 16,76</t>
+          <t>-39,0; 17,51</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,83; 60,92</t>
+          <t>-16,02; 65,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 56,31</t>
+          <t>-29,58; 50,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 54,23</t>
+          <t>-21,42; 56,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,35; 25,62</t>
+          <t>-45,07; 26,36</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,3; 62,01</t>
+          <t>13,17; 63,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 42,22</t>
+          <t>-57,83; 41,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,96; 45,58</t>
+          <t>7,04; 50,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,97; 47,55</t>
+          <t>6,84; 45,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,72; 47,0</t>
+          <t>13,83; 47,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 34,26</t>
+          <t>-16,79; 37,42</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,3; 162,93</t>
+          <t>15,16; 174,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,98; 84,51</t>
+          <t>-77,73; 94,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 83,74</t>
+          <t>7,57; 101,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 90,71</t>
+          <t>7,35; 84,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,9; 88,68</t>
+          <t>16,05; 89,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 62,27</t>
+          <t>-19,04; 67,57</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 32,07</t>
+          <t>-22,84; 32,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 33,98</t>
+          <t>-14,8; 32,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 17,41</t>
+          <t>-8,52; 17,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 13,65</t>
+          <t>-14,09; 14,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 18,49</t>
+          <t>-6,1; 18,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 18,17</t>
+          <t>-9,77; 17,93</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 50,29</t>
+          <t>-24,8; 54,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 57,79</t>
+          <t>-15,87; 53,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 21,73</t>
+          <t>-8,7; 21,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 16,91</t>
+          <t>-14,75; 18,07</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 24,4</t>
+          <t>-6,39; 24,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 22,77</t>
+          <t>-10,54; 22,99</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-48,43; 29,58</t>
+          <t>-46,95; 29,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-59,27; 23,22</t>
+          <t>-58,6; 24,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 25,32</t>
+          <t>-5,93; 30,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 32,05</t>
+          <t>-3,68; 31,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 23,38</t>
+          <t>-7,0; 23,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 19,67</t>
+          <t>-12,05; 20,3</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 42,64</t>
+          <t>-47,7; 41,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-69,73; 24,18</t>
+          <t>-69,07; 24,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 36,85</t>
+          <t>-5,86; 48,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 49,34</t>
+          <t>-3,71; 48,04</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 31,8</t>
+          <t>-7,17; 30,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 26,7</t>
+          <t>-12,76; 26,64</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 6,03</t>
+          <t>-8,89; 6,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,83; -1,09</t>
+          <t>-24,2; -1,61</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 4,67</t>
+          <t>-11,81; 4,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-25,5; -1,47</t>
+          <t>-24,62; -1,87</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 6,59</t>
+          <t>-9,3; 7,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-26,24; -1,46</t>
+          <t>-25,05; -1,64</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 5,01</t>
+          <t>-12,37; 5,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-26,58; -1,73</t>
+          <t>-25,78; -2,1</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 21,01</t>
+          <t>-16,15; 19,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 16,68</t>
+          <t>-19,19; 15,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 9,94</t>
+          <t>-1,34; 10,08</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 5,5</t>
+          <t>-7,91; 5,71</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 11,47</t>
+          <t>-0,28; 11,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 5,82</t>
+          <t>-7,49; 5,91</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 30,47</t>
+          <t>-19,19; 27,63</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 23,64</t>
+          <t>-23,65; 22,29</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 11,85</t>
+          <t>-1,4; 11,89</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-8,91; 6,43</t>
+          <t>-8,65; 6,65</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,08</t>
+          <t>-0,27; 14,34</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 7,01</t>
+          <t>-8,49; 7,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B03-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16B03-Clase-trans_camb.xlsx
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
